--- a/src/controllers/file/results/Summary/spreadsheets/algo_memo_times.xlsx
+++ b/src/controllers/file/results/Summary/spreadsheets/algo_memo_times.xlsx
@@ -472,14 +472,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kmeans</t>
+          <t>DBSCAN</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.34471</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.28853</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.2519</v>
+        <v>0.63</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15089</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -510,18 +510,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kmeans</t>
+          <t>DBSCAN</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.1046</v>
+        <v>2.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.28717</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.95768</v>
+        <v>0.32</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2908</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
@@ -573,18 +573,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DBSCAN</t>
+          <t>Kmeans</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8">
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.47162</v>
+        <v>1.96</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2963</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9">
@@ -619,14 +619,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DBSCAN</t>
+          <t>Kmeans</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -640,14 +640,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kmeans</t>
+          <t>DBSCAN</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.33239</v>
+        <v>0.19</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01821</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.27309</v>
+        <v>1.02</v>
       </c>
       <c r="E11" t="n">
-        <v>0.18672</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12">
@@ -678,18 +678,18 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kmeans</t>
+          <t>DBSCAN</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.19916</v>
+        <v>4.77</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03663</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="13">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="14">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.57744</v>
+        <v>0.31</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05665</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
@@ -741,18 +741,18 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DBSCAN</t>
+          <t>Kmeans</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5.9567</v>
+        <v>5.4</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08103</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
@@ -787,14 +787,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DBSCAN</t>
+          <t>Kmeans</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.89</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
@@ -808,14 +808,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Kmeans</t>
+          <t>DBSCAN</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.7007100000000001</v>
+        <v>0.53</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01642</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9.240220000000001</v>
+        <v>5.39</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07682</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="20">
@@ -846,18 +846,18 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Kmeans</t>
+          <t>DBSCAN</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.99322</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03608</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>95.01383</v>
+        <v>59.34</v>
       </c>
       <c r="E21" t="n">
-        <v>0.34717</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.30357</v>
+        <v>0.8</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05809</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23">
@@ -909,18 +909,18 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DBSCAN</t>
+          <t>Kmeans</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>369.1248</v>
+        <v>2.93</v>
       </c>
       <c r="E23" t="n">
-        <v>0.66404</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6.70108</v>
+        <v>5.85</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08129</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="25">
@@ -955,14 +955,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DBSCAN</t>
+          <t>Kmeans</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>766.78281</v>
+        <v>6.75</v>
       </c>
       <c r="E25" t="n">
-        <v>0.71084</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
